--- a/EndResult/50m Butterfly.xlsx
+++ b/EndResult/50m Butterfly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1498,12 +1498,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sanna Josefin Husan Ehrnholm</t>
+          <t>Sara Alonso Lopez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29,96</t>
+          <t>29,97</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.06.2016</t>
+          <t>31.10.2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1533,12 +1533,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sara Alonso Lopez</t>
+          <t>Sanna Josefin Husan Ehrnholm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29,97</t>
+          <t>29,96</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31.10.2021</t>
+          <t>18.06.2016</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
